--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H2">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I2">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J2">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.84961309101663</v>
+        <v>10.876357</v>
       </c>
       <c r="N2">
-        <v>8.84961309101663</v>
+        <v>32.629071</v>
       </c>
       <c r="O2">
-        <v>0.5748159637193473</v>
+        <v>0.6153167079818751</v>
       </c>
       <c r="P2">
-        <v>0.5748159637193473</v>
+        <v>0.615316707981875</v>
       </c>
       <c r="Q2">
-        <v>119.0099533088662</v>
+        <v>170.4238167298523</v>
       </c>
       <c r="R2">
-        <v>119.0099533088662</v>
+        <v>1533.814350568671</v>
       </c>
       <c r="S2">
-        <v>0.1584453109259829</v>
+        <v>0.1800378106750094</v>
       </c>
       <c r="T2">
-        <v>0.1584453109259829</v>
+        <v>0.1800378106750094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H3">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I3">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J3">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.23970773589604</v>
+        <v>4.349453666666666</v>
       </c>
       <c r="N3">
-        <v>4.23970773589604</v>
+        <v>13.048361</v>
       </c>
       <c r="O3">
-        <v>0.2753851115334455</v>
+        <v>0.2460650667951621</v>
       </c>
       <c r="P3">
-        <v>0.2753851115334455</v>
+        <v>0.2460650667951621</v>
       </c>
       <c r="Q3">
-        <v>57.01576040701942</v>
+        <v>68.15246084355121</v>
       </c>
       <c r="R3">
-        <v>57.01576040701942</v>
+        <v>613.3721475919609</v>
       </c>
       <c r="S3">
-        <v>0.07590860792900182</v>
+        <v>0.07199709569840884</v>
       </c>
       <c r="T3">
-        <v>0.07590860792900182</v>
+        <v>0.07199709569840884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H4">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I4">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J4">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.3062381860194</v>
+        <v>2.45022</v>
       </c>
       <c r="N4">
-        <v>2.3062381860194</v>
+        <v>7.35066</v>
       </c>
       <c r="O4">
-        <v>0.1497989247472073</v>
+        <v>0.138618225222963</v>
       </c>
       <c r="P4">
-        <v>0.1497989247472073</v>
+        <v>0.138618225222963</v>
       </c>
       <c r="Q4">
-        <v>31.01438402046151</v>
+        <v>38.39298804073999</v>
       </c>
       <c r="R4">
-        <v>31.01438402046151</v>
+        <v>345.5368923666599</v>
       </c>
       <c r="S4">
-        <v>0.04129136750895407</v>
+        <v>0.04055882355389048</v>
       </c>
       <c r="T4">
-        <v>0.04129136750895407</v>
+        <v>0.04055882355389048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H5">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I5">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J5">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.84961309101663</v>
+        <v>10.876357</v>
       </c>
       <c r="N5">
-        <v>8.84961309101663</v>
+        <v>32.629071</v>
       </c>
       <c r="O5">
-        <v>0.5748159637193473</v>
+        <v>0.6153167079818751</v>
       </c>
       <c r="P5">
-        <v>0.5748159637193473</v>
+        <v>0.615316707981875</v>
       </c>
       <c r="Q5">
-        <v>145.0345397228604</v>
+        <v>179.2072291014377</v>
       </c>
       <c r="R5">
-        <v>145.0345397228604</v>
+        <v>1612.865061912939</v>
       </c>
       <c r="S5">
-        <v>0.1930934522909642</v>
+        <v>0.189316715255246</v>
       </c>
       <c r="T5">
-        <v>0.1930934522909642</v>
+        <v>0.189316715255246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H6">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I6">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J6">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.23970773589604</v>
+        <v>4.349453666666666</v>
       </c>
       <c r="N6">
-        <v>4.23970773589604</v>
+        <v>13.048361</v>
       </c>
       <c r="O6">
-        <v>0.2753851115334455</v>
+        <v>0.2460650667951621</v>
       </c>
       <c r="P6">
-        <v>0.2753851115334455</v>
+        <v>0.2460650667951621</v>
       </c>
       <c r="Q6">
-        <v>69.4837224758821</v>
+        <v>71.66494624150545</v>
       </c>
       <c r="R6">
-        <v>69.4837224758821</v>
+        <v>644.9845161735491</v>
       </c>
       <c r="S6">
-        <v>0.09250797690352218</v>
+        <v>0.0757077283623753</v>
       </c>
       <c r="T6">
-        <v>0.09250797690352218</v>
+        <v>0.07570772836237528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H7">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I7">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J7">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.3062381860194</v>
+        <v>2.45022</v>
       </c>
       <c r="N7">
-        <v>2.3062381860194</v>
+        <v>7.35066</v>
       </c>
       <c r="O7">
-        <v>0.1497989247472073</v>
+        <v>0.138618225222963</v>
       </c>
       <c r="P7">
-        <v>0.1497989247472073</v>
+        <v>0.138618225222963</v>
       </c>
       <c r="Q7">
-        <v>37.79647656462494</v>
+        <v>40.37171057266001</v>
       </c>
       <c r="R7">
-        <v>37.79647656462494</v>
+        <v>363.34539515394</v>
       </c>
       <c r="S7">
-        <v>0.05032078674668693</v>
+        <v>0.04264917031067562</v>
       </c>
       <c r="T7">
-        <v>0.05032078674668693</v>
+        <v>0.0426491703106756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H8">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I8">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J8">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.84961309101663</v>
+        <v>10.876357</v>
       </c>
       <c r="N8">
-        <v>8.84961309101663</v>
+        <v>32.629071</v>
       </c>
       <c r="O8">
-        <v>0.5748159637193473</v>
+        <v>0.6153167079818751</v>
       </c>
       <c r="P8">
-        <v>0.5748159637193473</v>
+        <v>0.615316707981875</v>
       </c>
       <c r="Q8">
-        <v>167.7058730954689</v>
+        <v>232.827835882245</v>
       </c>
       <c r="R8">
-        <v>167.7058730954689</v>
+        <v>2095.450522940205</v>
       </c>
       <c r="S8">
-        <v>0.2232772005024001</v>
+        <v>0.2459621820516197</v>
       </c>
       <c r="T8">
-        <v>0.2232772005024001</v>
+        <v>0.2459621820516196</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H9">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I9">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J9">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.23970773589604</v>
+        <v>4.349453666666666</v>
       </c>
       <c r="N9">
-        <v>4.23970773589604</v>
+        <v>13.048361</v>
       </c>
       <c r="O9">
-        <v>0.2753851115334455</v>
+        <v>0.2460650667951621</v>
       </c>
       <c r="P9">
-        <v>0.2753851115334455</v>
+        <v>0.2460650667951621</v>
       </c>
       <c r="Q9">
-        <v>80.34519477917398</v>
+        <v>93.10781950979499</v>
       </c>
       <c r="R9">
-        <v>80.34519477917398</v>
+        <v>837.970375588155</v>
       </c>
       <c r="S9">
-        <v>0.1069685267009215</v>
+        <v>0.098360242734378</v>
       </c>
       <c r="T9">
-        <v>0.1069685267009215</v>
+        <v>0.09836024273437798</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H10">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I10">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J10">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.3062381860194</v>
+        <v>2.45022</v>
       </c>
       <c r="N10">
-        <v>2.3062381860194</v>
+        <v>7.35066</v>
       </c>
       <c r="O10">
-        <v>0.1497989247472073</v>
+        <v>0.138618225222963</v>
       </c>
       <c r="P10">
-        <v>0.1497989247472073</v>
+        <v>0.138618225222963</v>
       </c>
       <c r="Q10">
-        <v>43.70470037216761</v>
+        <v>52.4513327427</v>
       </c>
       <c r="R10">
-        <v>43.70470037216761</v>
+        <v>472.0619946843</v>
       </c>
       <c r="S10">
-        <v>0.05818677049156627</v>
+        <v>0.05541023135839689</v>
       </c>
       <c r="T10">
-        <v>0.05818677049156627</v>
+        <v>0.05541023135839687</v>
       </c>
     </row>
   </sheetData>
